--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -397,36 +397,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Title</v>
+        <v>Person</v>
       </c>
       <c r="B1" t="str">
-        <v>Amount</v>
+        <v>Category</v>
       </c>
       <c r="C1" t="str">
+        <v>Expense</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Savings</v>
+      </c>
+      <c r="E1" t="str">
         <v>Date</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Description</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>father</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Investment</v>
+      </c>
+      <c r="C2">
+        <v>25000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2026-02-26</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>mom</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Groceries</v>
+      </c>
+      <c r="C3">
+        <v>2500</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2026-02-20</v>
+      </c>
+      <c r="F3" t="str">
+        <v>food</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve">son </v>
+      </c>
+      <c r="B4" t="str">
+        <v>Education</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2026-02-20</v>
+      </c>
+      <c r="F4" t="str">
         <v>bus ticket</v>
       </c>
-      <c r="B2" t="str">
-        <v>16</v>
-      </c>
-      <c r="C2" t="str">
-        <v>20/2/2026, 1:29:47 pm</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve">father </v>
+      </c>
+      <c r="B5" t="str">
+        <v>Savings</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2026-02-21</v>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>TOTAL</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6">
+        <v>27600</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>